--- a/municipal/სასტუმროები/სასტუმროების რაოდენობა და ფართობი/ქ. თბილისი.xlsx
+++ b/municipal/სასტუმროები/სასტუმროების რაოდენობა და ფართობი/ქ. თბილისი.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\სასტუმროები\2 სასტუმროების რაოდენობა &amp; ფართობი\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\ტურიზმი\სასტუმროების რაოდენობა და ფართობი\სასტუმროების რაოდენობა &amp; ფართობი\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927E9B02-35B7-4637-BD9B-959563A738EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13185" windowHeight="11925"/>
+    <workbookView xWindow="420" yWindow="3510" windowWidth="18780" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ქ. თბილისი" sheetId="2" r:id="rId1"/>
@@ -32,13 +33,13 @@
     <t>სასტუმროებისა და სასტუმროს ტიპის დაწესებულებების რაოდენობა და მთლიანი ფართობი ადგილობრივი ერთეულების ჩათვლით ქ. თბილისის მუნიციპალიტეტში</t>
   </si>
   <si>
-    <t>ფართობი კვ.მ.</t>
+    <t>ფართობი, კვ.მ.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#\ ##0.0"/>
   </numFmts>
@@ -92,7 +93,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -142,12 +143,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -159,40 +169,31 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -469,78 +470,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" style="1" customWidth="1"/>
-    <col min="2" max="13" width="12.7109375" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="13" width="10.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
     </row>
-    <row r="2" spans="1:14" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="14">
+      <c r="B2" s="9">
         <v>2010</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="9">
         <v>2011</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="9">
         <v>2012</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="9">
         <v>2013</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="9">
         <v>2014</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="9">
         <v>2015</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="9">
         <v>2016</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="9">
         <v>2017</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="9">
         <v>2018</v>
       </c>
-      <c r="K2" s="14">
+      <c r="K2" s="9">
         <v>2019</v>
       </c>
-      <c r="L2" s="14">
+      <c r="L2" s="9">
         <v>2020</v>
       </c>
-      <c r="M2" s="14">
+      <c r="M2" s="9">
         <v>2021</v>
       </c>
-      <c r="N2" s="5"/>
+      <c r="N2" s="9">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" s="8" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -580,49 +582,53 @@
       <c r="M3" s="3">
         <v>386</v>
       </c>
-      <c r="N3" s="7"/>
+      <c r="N3" s="3">
+        <v>562</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:14" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="11">
         <v>238532.77</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="11">
         <v>260647.83</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="11">
         <v>256217.9</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="11">
         <v>257924</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="11">
         <v>286390</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="11">
         <v>364085</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="11">
         <v>511786</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="11">
         <v>520418</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="11">
         <v>550138.39</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="11">
         <v>705651.19999999995</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="11">
         <v>500856</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="11">
         <v>653855.19999999995</v>
       </c>
-      <c r="N4" s="11"/>
+      <c r="N4" s="11">
+        <v>758085.70001220703</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/municipal/სასტუმროები/სასტუმროების რაოდენობა და ფართობი/ქ. თბილისი.xlsx
+++ b/municipal/სასტუმროები/სასტუმროების რაოდენობა და ფართობი/ქ. თბილისი.xlsx
@@ -1,49 +1,66 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\ტურიზმი\სასტუმროების რაოდენობა და ფართობი\სასტუმროების რაოდენობა &amp; ფართობი\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\სასტუმროები_მუნიციპალიტეტები\2 სასტუმროების რაოდენობა &amp; ფართობი\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927E9B02-35B7-4637-BD9B-959563A738EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077498A6-0204-4481-A558-91B95036C183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="3510" windowWidth="18780" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="21990" windowHeight="13485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ქ. თბილისი" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>რაოდენობა</t>
   </si>
   <si>
-    <t>სასტუმროებისა და სასტუმროს ტიპის დაწესებულებების რაოდენობა და მთლიანი ფართობი ადგილობრივი ერთეულების ჩათვლით ქ. თბილისის მუნიციპალიტეტში</t>
+    <t>*საქართველოს კანონმდებლობის შესაბამისად დარეგისტრირებული იურიდიული პირები და ინდივიდუალური მეწარმეები</t>
   </si>
   <si>
-    <t>ფართობი, კვ.მ.</t>
+    <t>(ადგილობრივი ერთეულებისა და ფილიალების ჩათვლით).</t>
+  </si>
+  <si>
+    <t>სასტუმროებისა და სასტუმროს ტიპის დაწესებულებების* რაოდენობა და მთლიანი ფართობი ქ. თბილისში</t>
+  </si>
+  <si>
+    <t>ფართობი, ათასი კვ.მ.</t>
+  </si>
+  <si>
+    <t>(დეკლარირებული მონაცემები)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#\ ##0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,6 +84,18 @@
       <family val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
@@ -79,21 +108,15 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -152,42 +175,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -471,166 +509,212 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:O1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="1" customWidth="1"/>
-    <col min="2" max="13" width="10.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="23.28515625" style="2" customWidth="1"/>
+    <col min="2" max="13" width="8.5703125" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+    </row>
+    <row r="3" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9">
+        <v>2010</v>
+      </c>
+      <c r="C3" s="9">
+        <v>2011</v>
+      </c>
+      <c r="D3" s="9">
+        <v>2012</v>
+      </c>
+      <c r="E3" s="9">
+        <v>2013</v>
+      </c>
+      <c r="F3" s="9">
+        <v>2014</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2015</v>
+      </c>
+      <c r="H3" s="9">
+        <v>2016</v>
+      </c>
+      <c r="I3" s="9">
+        <v>2017</v>
+      </c>
+      <c r="J3" s="9">
+        <v>2018</v>
+      </c>
+      <c r="K3" s="9">
+        <v>2019</v>
+      </c>
+      <c r="L3" s="9">
+        <v>2020</v>
+      </c>
+      <c r="M3" s="9">
+        <v>2021</v>
+      </c>
+      <c r="N3" s="9">
+        <v>2022</v>
+      </c>
+      <c r="O3" s="9">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="12">
+        <v>126</v>
+      </c>
+      <c r="C4" s="12">
+        <v>153</v>
+      </c>
+      <c r="D4" s="12">
+        <v>175</v>
+      </c>
+      <c r="E4" s="12">
+        <v>175</v>
+      </c>
+      <c r="F4" s="12">
+        <v>221</v>
+      </c>
+      <c r="G4" s="12">
+        <v>350</v>
+      </c>
+      <c r="H4" s="12">
+        <v>463</v>
+      </c>
+      <c r="I4" s="12">
+        <v>490</v>
+      </c>
+      <c r="J4" s="12">
+        <v>503</v>
+      </c>
+      <c r="K4" s="12">
+        <v>512</v>
+      </c>
+      <c r="L4" s="12">
+        <v>315</v>
+      </c>
+      <c r="M4" s="12">
+        <v>386</v>
+      </c>
+      <c r="N4" s="12">
+        <v>562</v>
+      </c>
+      <c r="O4" s="12">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13">
+        <v>238.53277000000003</v>
+      </c>
+      <c r="C5" s="13">
+        <v>260.64783</v>
+      </c>
+      <c r="D5" s="13">
+        <v>256.21789999999999</v>
+      </c>
+      <c r="E5" s="13">
+        <v>257.92399999999998</v>
+      </c>
+      <c r="F5" s="13">
+        <v>286.39</v>
+      </c>
+      <c r="G5" s="13">
+        <v>364.08499999999998</v>
+      </c>
+      <c r="H5" s="13">
+        <v>511.786</v>
+      </c>
+      <c r="I5" s="13">
+        <v>520.41800000000001</v>
+      </c>
+      <c r="J5" s="13">
+        <v>550.13838999999996</v>
+      </c>
+      <c r="K5" s="13">
+        <v>705.6511999999999</v>
+      </c>
+      <c r="L5" s="13">
+        <v>500.85599999999999</v>
+      </c>
+      <c r="M5" s="13">
+        <v>653.85519999999997</v>
+      </c>
+      <c r="N5" s="13">
+        <v>757.8877</v>
+      </c>
+      <c r="O5" s="13">
+        <v>819.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="9">
-        <v>2010</v>
-      </c>
-      <c r="C2" s="9">
-        <v>2011</v>
-      </c>
-      <c r="D2" s="9">
-        <v>2012</v>
-      </c>
-      <c r="E2" s="9">
-        <v>2013</v>
-      </c>
-      <c r="F2" s="9">
-        <v>2014</v>
-      </c>
-      <c r="G2" s="9">
-        <v>2015</v>
-      </c>
-      <c r="H2" s="9">
-        <v>2016</v>
-      </c>
-      <c r="I2" s="9">
-        <v>2017</v>
-      </c>
-      <c r="J2" s="9">
-        <v>2018</v>
-      </c>
-      <c r="K2" s="9">
-        <v>2019</v>
-      </c>
-      <c r="L2" s="9">
-        <v>2020</v>
-      </c>
-      <c r="M2" s="9">
-        <v>2021</v>
-      </c>
-      <c r="N2" s="9">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3">
-        <v>126</v>
-      </c>
-      <c r="C3" s="3">
-        <v>153</v>
-      </c>
-      <c r="D3" s="3">
-        <v>175</v>
-      </c>
-      <c r="E3" s="3">
-        <v>175</v>
-      </c>
-      <c r="F3" s="3">
-        <v>221</v>
-      </c>
-      <c r="G3" s="3">
-        <v>350</v>
-      </c>
-      <c r="H3" s="3">
-        <v>463</v>
-      </c>
-      <c r="I3" s="3">
-        <v>490</v>
-      </c>
-      <c r="J3" s="3">
-        <v>503</v>
-      </c>
-      <c r="K3" s="3">
-        <v>512</v>
-      </c>
-      <c r="L3" s="3">
-        <v>315</v>
-      </c>
-      <c r="M3" s="3">
-        <v>386</v>
-      </c>
-      <c r="N3" s="3">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>2</v>
-      </c>
-      <c r="B4" s="11">
-        <v>238532.77</v>
-      </c>
-      <c r="C4" s="11">
-        <v>260647.83</v>
-      </c>
-      <c r="D4" s="11">
-        <v>256217.9</v>
-      </c>
-      <c r="E4" s="11">
-        <v>257924</v>
-      </c>
-      <c r="F4" s="11">
-        <v>286390</v>
-      </c>
-      <c r="G4" s="11">
-        <v>364085</v>
-      </c>
-      <c r="H4" s="11">
-        <v>511786</v>
-      </c>
-      <c r="I4" s="11">
-        <v>520418</v>
-      </c>
-      <c r="J4" s="11">
-        <v>550138.39</v>
-      </c>
-      <c r="K4" s="11">
-        <v>705651.19999999995</v>
-      </c>
-      <c r="L4" s="11">
-        <v>500856</v>
-      </c>
-      <c r="M4" s="11">
-        <v>653855.19999999995</v>
-      </c>
-      <c r="N4" s="11">
-        <v>758085.70001220703</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
